--- a/xlsx/東京_intext.xlsx
+++ b/xlsx/東京_intext.xlsx
@@ -29,7 +29,7 @@
     <t>东京 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_東京</t>
+    <t>体育运动_体育运动_奥林匹克运动会_東京</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B0%E5%AE%BF</t>
@@ -17446,7 +17446,7 @@
         <v>928</v>
       </c>
       <c r="G493" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
